--- a/Project/Phase 1/Sprint1/Sprint1 BurndownChart.xlsx
+++ b/Project/Phase 1/Sprint1/Sprint1 BurndownChart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Desktop\uni\3º ano\IA\ganttproject\Project\Phase 1\Sprint1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadia\IdeaProjects\ganttproject\Project\Phase 1\Sprint1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAED62D8-95F7-46E0-BA91-8587F906EA13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22AA31C6-C6AB-4D21-8CF6-A9719120C7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9D469383-3E28-404A-923C-1BF2357690AB}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" xr2:uid="{9D469383-3E28-404A-923C-1BF2357690AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Task ID</t>
   </si>
@@ -72,6 +72,9 @@
   </si>
   <si>
     <t>Sprint BurnDownChart</t>
+  </si>
+  <si>
+    <t>Final Report</t>
   </si>
 </sst>
 </file>
@@ -495,7 +498,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -503,118 +506,115 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,7 +674,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -914,16 +914,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,13 +992,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.6666666666666661</c:v>
+                  <c:v>5.3333333333333339</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.333333333333333</c:v>
+                  <c:v>2.666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0</c:v>
@@ -1067,7 +1067,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="206749919"/>
@@ -1126,7 +1126,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="255062959"/>
@@ -1168,7 +1168,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1205,7 +1205,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2113,7 +2113,7 @@
   <dimension ref="B2:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C15"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2127,33 +2127,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="11">
         <v>44853</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="11">
         <v>44854</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="12">
         <v>44855</v>
       </c>
       <c r="H4" s="2"/>
@@ -2161,219 +2161,223 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="18">
+      <c r="B5" s="30"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="14">
         <v>0</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="15">
         <v>2</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="13">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="11">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="34">
+      <c r="D6" s="23">
         <v>1</v>
       </c>
-      <c r="E6" s="35">
+      <c r="E6" s="24">
         <v>0.5</v>
       </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25"/>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="7">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="26">
         <v>1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.5</v>
       </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="5"/>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8" s="7">
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="26">
         <v>2</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="8"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="7">
+      <c r="B9" s="4">
         <v>4</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="37">
+      <c r="D9" s="26">
         <v>2</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="8"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10" s="7">
+      <c r="B10" s="4">
         <v>5</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="37">
+      <c r="C10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="26">
         <v>1</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="40"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
+      <c r="B11" s="4">
         <v>6</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="8"/>
+      <c r="C11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="26">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
+      <c r="B12" s="4">
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="8"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
+      <c r="B13" s="4">
         <v>8</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="8"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="5"/>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="7">
+      <c r="B14" s="4">
         <v>9</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="8"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="5"/>
     </row>
     <row r="15" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="9">
+      <c r="B15" s="6">
         <v>10</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="10"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="29">
+      <c r="C17" s="34"/>
+      <c r="D17" s="18">
         <v>0</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="19">
         <f>SUM(E6:E15)</f>
         <v>1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="19">
         <f t="shared" ref="F17:G17" si="0">SUM(F6:F15)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="25">
+      <c r="C18" s="36"/>
+      <c r="D18" s="16">
         <f>SUM(D6:D15)</f>
+        <v>8</v>
+      </c>
+      <c r="E18" s="17">
+        <f>D18-E17</f>
         <v>7</v>
       </c>
-      <c r="E18" s="26">
-        <f>D18-E17</f>
-        <v>6</v>
-      </c>
-      <c r="F18" s="26">
+      <c r="F18" s="17">
         <f>E18-F17</f>
-        <v>6</v>
-      </c>
-      <c r="G18" s="26">
+        <v>7</v>
+      </c>
+      <c r="G18" s="17">
         <f>F18-G17</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="31">
+      <c r="C19" s="38"/>
+      <c r="D19" s="20">
         <f>D18</f>
-        <v>7</v>
-      </c>
-      <c r="E19" s="32">
+        <v>8</v>
+      </c>
+      <c r="E19" s="21">
         <f>$D$19-$D$19/3*E5</f>
-        <v>4.6666666666666661</v>
-      </c>
-      <c r="F19" s="32">
+        <v>5.3333333333333339</v>
+      </c>
+      <c r="F19" s="21">
         <f t="shared" ref="F19:G19" si="1">$D$19-$D$19/3*F5</f>
-        <v>2.333333333333333</v>
-      </c>
-      <c r="G19" s="33">
+        <v>2.666666666666667</v>
+      </c>
+      <c r="G19" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B2:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
